--- a/reports/resnet18_23_no_MMTM/prediction/6/probability_val_6.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/6/probability_val_6.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7820895910263062</v>
+        <v>0.832490861415863</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2179103791713715</v>
+        <v>0.167509138584137</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3248952627182007</v>
+        <v>0.1763290762901306</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6751047372817993</v>
+        <v>0.8236709237098694</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6881722807884216</v>
+        <v>0.5432735681533813</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3118277192115784</v>
+        <v>0.456726461648941</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3452250957489014</v>
+        <v>0.335723489522934</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6547749042510986</v>
+        <v>0.6642765402793884</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9176328182220459</v>
+        <v>0.8866510987281799</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08236723393201828</v>
+        <v>0.1133489161729813</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6588772535324097</v>
+        <v>0.3343006670475006</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3411227464675903</v>
+        <v>0.6656993627548218</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7000513076782227</v>
+        <v>0.5977295637130737</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2999487221240997</v>
+        <v>0.4022704660892487</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5137223601341248</v>
+        <v>0.4007360637187958</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4862776398658752</v>
+        <v>0.5992639064788818</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1331568211317062</v>
+        <v>0.0274577159434557</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8668432235717773</v>
+        <v>0.9725422859191895</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1832816004753113</v>
+        <v>0.06314291059970856</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8167184591293335</v>
+        <v>0.9368570446968079</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.09476955235004425</v>
+        <v>0.0319555476307869</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9052304029464722</v>
+        <v>0.9680445194244385</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.430921196937561</v>
+        <v>0.05752405524253845</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5690787434577942</v>
+        <v>0.9424759149551392</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3076213002204895</v>
+        <v>0.2380609810352325</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6923786997795105</v>
+        <v>0.7619389891624451</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3891140818595886</v>
+        <v>0.3859850764274597</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6108858585357666</v>
+        <v>0.6140149831771851</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3447201550006866</v>
+        <v>0.05430673062801361</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6552798748016357</v>
+        <v>0.94569331407547</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1961185932159424</v>
+        <v>0.03908589109778404</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8038814067840576</v>
+        <v>0.960914134979248</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1249999105930328</v>
+        <v>0.04048845916986465</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8750001192092896</v>
+        <v>0.9595115780830383</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3212981820106506</v>
+        <v>0.04111997783184052</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6787018775939941</v>
+        <v>0.9588800072669983</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3795244097709656</v>
+        <v>0.3184139132499695</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6204755306243896</v>
+        <v>0.6815860271453857</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3621648252010345</v>
+        <v>0.3774389028549194</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6378351449966431</v>
+        <v>0.6225610971450806</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1909390985965729</v>
+        <v>0.02555559575557709</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8090608716011047</v>
+        <v>0.9744444489479065</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
